--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
@@ -1472,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
+      <xdr:colOff>587160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1484,7 +1484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8488080" y="578520"/>
-          <a:ext cx="335160" cy="260280"/>
+          <a:ext cx="334800" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2577,7 +2577,7 @@
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
       <c r="V42" s="83"/>
-      <c r="W42" s="69"/>
+      <c r="W42" s="83"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="48"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
   <si>
     <t xml:space="preserve">`</t>
   </si>
@@ -123,12 +123,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD3FE9A"/>
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
@@ -137,6 +131,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,7 +670,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="186">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -743,7 +743,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,11 +767,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,6 +823,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -843,15 +851,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,19 +1003,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,15 +1039,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,19 +1059,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,19 +1103,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1111,11 +1123,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1127,23 +1139,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1155,7 +1151,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1175,6 +1187,18 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -1299,7 +1323,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,7 +1335,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1472,9 +1500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1484,7 +1512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8488080" y="578520"/>
-          <a:ext cx="334800" cy="259920"/>
+          <a:ext cx="333720" cy="258840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1514,7 +1542,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1687,1172 +1715,1187 @@
       <c r="I7" s="23"/>
       <c r="J7" s="24"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="Z8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="69"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="84"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="85"/>
+      <c r="W16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="98"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="101"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="108"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="111"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="108"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="111"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="84"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="117"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="130"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="W28" s="34"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="34"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="36"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="150"/>
-      <c r="Q34" s="150"/>
-      <c r="R34" s="150"/>
-      <c r="S34" s="150"/>
-      <c r="T34" s="150"/>
-      <c r="U34" s="150"/>
-      <c r="V34" s="150"/>
-      <c r="W34" s="150"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
-      <c r="R35" s="152"/>
-      <c r="S35" s="152"/>
-      <c r="T35" s="152"/>
-      <c r="U35" s="152"/>
-      <c r="V35" s="152"/>
-      <c r="W35" s="152"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="36"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="154"/>
-      <c r="Q37" s="154"/>
-      <c r="R37" s="154"/>
-      <c r="S37" s="154"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="154"/>
-      <c r="V37" s="154"/>
-      <c r="W37" s="155"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83" t="s">
+      <c r="V22" s="85"/>
+      <c r="W22" s="86"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="120"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="136"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="V38" s="83"/>
-      <c r="W38" s="83"/>
+      <c r="W28" s="35"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="35"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="37"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="156"/>
+      <c r="Q34" s="156"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="156"/>
+      <c r="W34" s="156"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="37"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="160"/>
+      <c r="S37" s="160"/>
+      <c r="T37" s="160"/>
+      <c r="U37" s="160"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="161"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="36"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="83"/>
-      <c r="W42" s="83"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="36"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="69"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="71"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="159"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="168"/>
-      <c r="P47" s="168"/>
-      <c r="Q47" s="168"/>
-      <c r="R47" s="168"/>
-      <c r="S47" s="168"/>
-      <c r="T47" s="168"/>
-      <c r="U47" s="168"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
+      <c r="Q47" s="175"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="175"/>
+      <c r="U47" s="175"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="69"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="71"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="164"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
-      <c r="Q49" s="168"/>
-      <c r="R49" s="168"/>
-      <c r="S49" s="168"/>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="175"/>
+      <c r="N49" s="175"/>
+      <c r="O49" s="175"/>
+      <c r="P49" s="175"/>
+      <c r="Q49" s="175"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="69"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="71"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="159"/>
-      <c r="I51" s="174"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
-      <c r="Q51" s="168"/>
-      <c r="R51" s="168"/>
-      <c r="S51" s="168"/>
-      <c r="T51" s="168"/>
-      <c r="U51" s="168"/>
-      <c r="V51" s="168"/>
-      <c r="W51" s="36"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="174"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="175"/>
+      <c r="T51" s="175"/>
+      <c r="U51" s="175"/>
+      <c r="V51" s="175"/>
+      <c r="W51" s="37"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="56"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="58"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="175"/>
-      <c r="B53" s="175"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="172"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="172"/>
-      <c r="T53" s="172"/>
-      <c r="U53" s="172"/>
-      <c r="V53" s="172"/>
-      <c r="W53" s="155"/>
+      <c r="A53" s="182"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="185"/>
+      <c r="L53" s="179"/>
+      <c r="M53" s="179"/>
+      <c r="N53" s="179"/>
+      <c r="O53" s="179"/>
+      <c r="P53" s="179"/>
+      <c r="Q53" s="179"/>
+      <c r="R53" s="179"/>
+      <c r="S53" s="179"/>
+      <c r="T53" s="179"/>
+      <c r="U53" s="179"/>
+      <c r="V53" s="179"/>
+      <c r="W53" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
@@ -670,7 +670,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="183">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -747,11 +747,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,11 +783,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,447 +831,435 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="40" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="40" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,15 +1331,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1375,11 +1363,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1399,7 +1387,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>585720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1512,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8488080" y="578520"/>
-          <a:ext cx="333720" cy="258840"/>
+          <a:ext cx="333360" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1544,7 +1532,7 @@
   </sheetPr>
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1886,118 +1874,118 @@
       <c r="W13" s="71"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="85"/>
-      <c r="W16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="99"/>
       <c r="L18" s="100"/>
       <c r="M18" s="100"/>
@@ -2018,24 +2006,24 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103"/>
       <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="111"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="109"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50"/>
@@ -2043,24 +2031,24 @@
       <c r="C20" s="102"/>
       <c r="D20" s="103"/>
       <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="111"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="109"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50"/>
@@ -2071,134 +2059,134 @@
       <c r="F21" s="42"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="V22" s="85"/>
-      <c r="W22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="87"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="120"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="117"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="104"/>
       <c r="F24" s="42"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="50"/>
       <c r="B25" s="50"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="68"/>
       <c r="K26" s="69"/>
       <c r="L26" s="70"/>
@@ -2217,14 +2205,14 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="104"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="136"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -2237,19 +2225,19 @@
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
-      <c r="W27" s="136"/>
+      <c r="W27" s="133"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="104"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="139"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="136"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -2269,15 +2257,15 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="50"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="143"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="140"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -2296,12 +2284,12 @@
       <c r="B30" s="50"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
       <c r="K30" s="69"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
@@ -2319,14 +2307,14 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="50"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
@@ -2344,14 +2332,14 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="50"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -2369,15 +2357,15 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="50"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="143"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="140"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
@@ -2396,62 +2384,62 @@
       <c r="B34" s="50"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="156"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="156"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="153"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="50"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="155"/>
+      <c r="U35" s="155"/>
+      <c r="V35" s="155"/>
+      <c r="W35" s="155"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="50"/>
       <c r="B36" s="50"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="149"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="146"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -2469,66 +2457,66 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="50"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="159"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="161"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="158"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="50"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="165"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="162"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="167"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="164"/>
       <c r="K39" s="34"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -2546,42 +2534,42 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="50"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="168"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="165"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="44"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85" t="s">
+      <c r="I40" s="145"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="143"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="140"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
@@ -2598,41 +2586,41 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="165"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="162"/>
       <c r="F43" s="31"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="172"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="169"/>
       <c r="K43" s="34"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -2650,14 +2638,14 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="168"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="165"/>
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
       <c r="H44" s="44"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="108"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
@@ -2675,15 +2663,15 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="143"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="140"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="31"/>
@@ -2702,10 +2690,10 @@
       <c r="B46" s="50"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
       <c r="I46" s="69"/>
       <c r="J46" s="64"/>
       <c r="K46" s="69"/>
@@ -2725,39 +2713,39 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="135"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="104"/>
       <c r="F47" s="62"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="174"/>
-      <c r="L47" s="175"/>
-      <c r="M47" s="175"/>
-      <c r="N47" s="175"/>
-      <c r="O47" s="175"/>
-      <c r="P47" s="175"/>
-      <c r="Q47" s="175"/>
-      <c r="R47" s="175"/>
-      <c r="S47" s="175"/>
-      <c r="T47" s="175"/>
-      <c r="U47" s="175"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="172"/>
+      <c r="P47" s="172"/>
+      <c r="Q47" s="172"/>
+      <c r="R47" s="172"/>
+      <c r="S47" s="172"/>
+      <c r="T47" s="172"/>
+      <c r="U47" s="172"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="135"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="104"/>
       <c r="F48" s="62"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="178"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="175"/>
       <c r="K48" s="69"/>
       <c r="L48" s="70"/>
       <c r="M48" s="70"/>
@@ -2775,25 +2763,25 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="175"/>
-      <c r="M49" s="175"/>
-      <c r="N49" s="175"/>
-      <c r="O49" s="175"/>
-      <c r="P49" s="175"/>
-      <c r="Q49" s="175"/>
-      <c r="R49" s="175"/>
-      <c r="S49" s="175"/>
-      <c r="T49" s="175"/>
-      <c r="U49" s="175"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="172"/>
+      <c r="N49" s="172"/>
+      <c r="O49" s="172"/>
+      <c r="P49" s="172"/>
+      <c r="Q49" s="172"/>
+      <c r="R49" s="172"/>
+      <c r="S49" s="172"/>
+      <c r="T49" s="172"/>
+      <c r="U49" s="172"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
     </row>
@@ -2802,11 +2790,11 @@
       <c r="B50" s="50"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="180"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="177"/>
       <c r="J50" s="64"/>
       <c r="K50" s="69"/>
       <c r="L50" s="70"/>
@@ -2825,39 +2813,39 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="135"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
       <c r="E51" s="104"/>
       <c r="F51" s="62"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="174"/>
-      <c r="L51" s="175"/>
-      <c r="M51" s="175"/>
-      <c r="N51" s="175"/>
-      <c r="O51" s="175"/>
-      <c r="P51" s="175"/>
-      <c r="Q51" s="175"/>
-      <c r="R51" s="175"/>
-      <c r="S51" s="175"/>
-      <c r="T51" s="175"/>
-      <c r="U51" s="175"/>
-      <c r="V51" s="175"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="172"/>
+      <c r="M51" s="172"/>
+      <c r="N51" s="172"/>
+      <c r="O51" s="172"/>
+      <c r="P51" s="172"/>
+      <c r="Q51" s="172"/>
+      <c r="R51" s="172"/>
+      <c r="S51" s="172"/>
+      <c r="T51" s="172"/>
+      <c r="U51" s="172"/>
+      <c r="V51" s="172"/>
       <c r="W51" s="37"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="135"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="132"/>
       <c r="E52" s="104"/>
       <c r="F52" s="62"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="178"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="175"/>
       <c r="K52" s="56"/>
       <c r="L52" s="57"/>
       <c r="M52" s="57"/>
@@ -2873,29 +2861,29 @@
       <c r="W52" s="58"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="182"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="184"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="185"/>
-      <c r="L53" s="179"/>
-      <c r="M53" s="179"/>
-      <c r="N53" s="179"/>
-      <c r="O53" s="179"/>
-      <c r="P53" s="179"/>
-      <c r="Q53" s="179"/>
-      <c r="R53" s="179"/>
-      <c r="S53" s="179"/>
-      <c r="T53" s="179"/>
-      <c r="U53" s="179"/>
-      <c r="V53" s="179"/>
-      <c r="W53" s="161"/>
+      <c r="A53" s="179"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="182"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
+      <c r="U53" s="176"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">`</t>
   </si>
@@ -33,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -63,20 +63,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="1"/>
@@ -84,7 +71,7 @@
     <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="1"/>
@@ -634,7 +621,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="138">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,51 +630,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,7 +690,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,7 +710,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,11 +722,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,7 +746,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,19 +758,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,7 +778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -803,15 +790,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,11 +806,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,7 +818,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,15 +826,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,15 +842,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,27 +862,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,39 +890,39 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,31 +930,31 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,127 +962,63 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1103,127 +1026,151 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,9 +1259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,7 +1271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8488080" y="578520"/>
-          <a:ext cx="333000" cy="258120"/>
+          <a:ext cx="331200" cy="256320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1356,13 +1303,15 @@
   </sheetPr>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="1" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="25" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,9 +1487,7 @@
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
-      <c r="U7" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
     </row>
@@ -1591,9 +1538,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="47" t="s">
-        <v>0</v>
-      </c>
+      <c r="U9" s="47"/>
       <c r="V9" s="47"/>
       <c r="W9" s="47"/>
     </row>
@@ -1768,9 +1713,7 @@
       <c r="R16" s="69"/>
       <c r="S16" s="69"/>
       <c r="T16" s="69"/>
-      <c r="U16" s="69" t="s">
-        <v>0</v>
-      </c>
+      <c r="U16" s="69"/>
       <c r="V16" s="69"/>
       <c r="W16" s="70"/>
     </row>
@@ -1810,94 +1753,94 @@
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
       <c r="J18" s="63"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="95"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="70"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="42"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="103"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="42"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="107"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="99"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="42"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
@@ -1905,99 +1848,99 @@
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="91"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="63"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="95"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="70"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="98"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="42"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="103"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="98"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="42"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="107"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="99"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="72"/>
       <c r="D25" s="73"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
@@ -2005,261 +1948,261 @@
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="91"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="116"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="63"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="95"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="70"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="98"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="42"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="103"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="42"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="107"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="99"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="72"/>
       <c r="D29" s="73"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="118"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="63"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="95"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="70"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="119"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="103"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="119"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="110"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="107"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="99"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="72"/>
       <c r="D33" s="73"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="118"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="109"/>
       <c r="J34" s="67"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="119"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="119"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="130"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="121"/>
       <c r="K36" s="46"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -2272,232 +2215,232 @@
       <c r="T36" s="47"/>
       <c r="U36" s="47"/>
       <c r="V36" s="47"/>
-      <c r="W36" s="131"/>
+      <c r="W36" s="99"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="72"/>
       <c r="D37" s="73"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="122"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="77"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="133"/>
-      <c r="T37" s="133"/>
-      <c r="U37" s="133"/>
-      <c r="V37" s="133"/>
-      <c r="W37" s="134"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="124"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
-      <c r="E38" s="135"/>
+      <c r="E38" s="125"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="118"/>
+      <c r="I38" s="109"/>
       <c r="J38" s="63"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="95"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="70"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="136"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="102"/>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="103"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="119"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="44"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="107"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="99"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="72"/>
       <c r="D41" s="73"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="102"/>
-      <c r="V41" s="102"/>
-      <c r="W41" s="102"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
-      <c r="E42" s="135"/>
+      <c r="E42" s="125"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="118"/>
+      <c r="I42" s="109"/>
       <c r="J42" s="63"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="95"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="70"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="136"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="102"/>
-      <c r="U43" s="102"/>
-      <c r="V43" s="102"/>
-      <c r="W43" s="103"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="119"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
       <c r="H44" s="44"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
-      <c r="W44" s="107"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="99"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="72"/>
       <c r="D45" s="73"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="102"/>
-      <c r="U45" s="102"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="102"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="39"/>
@@ -2505,99 +2448,99 @@
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
       <c r="E46" s="91"/>
-      <c r="F46" s="137"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
       <c r="I46" s="68"/>
       <c r="J46" s="63"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="95"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="70"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="98"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="61"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="V47" s="102"/>
-      <c r="W47" s="103"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="37"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="98"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="61"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="107"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="99"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="72"/>
       <c r="D49" s="73"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="113"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="104"/>
       <c r="H49" s="81"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="102"/>
-      <c r="S49" s="102"/>
-      <c r="T49" s="102"/>
-      <c r="U49" s="102"/>
-      <c r="V49" s="102"/>
-      <c r="W49" s="102"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="39"/>
@@ -2605,99 +2548,99 @@
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
       <c r="E50" s="91"/>
-      <c r="F50" s="137"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
-      <c r="I50" s="141"/>
+      <c r="I50" s="131"/>
       <c r="J50" s="63"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="95"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="70"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="98"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="61"/>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="102"/>
-      <c r="O51" s="102"/>
-      <c r="P51" s="102"/>
-      <c r="Q51" s="102"/>
-      <c r="R51" s="102"/>
-      <c r="S51" s="102"/>
-      <c r="T51" s="102"/>
-      <c r="U51" s="102"/>
-      <c r="V51" s="102"/>
-      <c r="W51" s="103"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="37"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="98"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="95"/>
       <c r="F52" s="61"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="106"/>
-      <c r="R52" s="106"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="106"/>
-      <c r="U52" s="106"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="107"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="99"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="113"/>
+      <c r="A53" s="133"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="104"/>
       <c r="H53" s="81"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="140"/>
-      <c r="T53" s="140"/>
-      <c r="U53" s="140"/>
-      <c r="V53" s="140"/>
-      <c r="W53" s="134"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="124"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="1" t="s">
